--- a/five9.xlsx
+++ b/five9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21217921-7CB4-41DE-AA22-FBD48A7243FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D77713-9126-4DCD-8681-64C2B5228864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="11970" activeTab="1" xr2:uid="{FE0D6078-D42C-4358-83F0-876CFB7BDB08}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{FE0D6078-D42C-4358-83F0-876CFB7BDB08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>FIVE9 Inc</t>
   </si>
@@ -72,9 +72,6 @@
     <t>last q * 4</t>
   </si>
   <si>
-    <t>a * gr</t>
-  </si>
-  <si>
     <t>fcf</t>
   </si>
   <si>
@@ -133,6 +130,96 @@
   </si>
   <si>
     <t>gross margin</t>
+  </si>
+  <si>
+    <t>opcash flow / rev</t>
+  </si>
+  <si>
+    <t>proj 2025</t>
+  </si>
+  <si>
+    <t>rev / ev</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>leading provoder of intelligent cloud software for contact centers</t>
+  </si>
+  <si>
+    <t>they are disrupting a large market by replacing legacy on premises contact center systems and working with newer companies by starting their contact center journey in the cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">their mission is to empower organizations to transform their contact centers into customer experience centers of excellence, while improving business agility, customer satisfaction, and significantly lowering the cost and complexity of their operations. </t>
+  </si>
+  <si>
+    <t>more than 3000 customers</t>
+  </si>
+  <si>
+    <t>3 key industry trents driving growth in cloud contact center market</t>
+  </si>
+  <si>
+    <t>CLOUD CONTACT CENTER</t>
+  </si>
+  <si>
+    <t>a software based service that manages customer communications across multiople channels</t>
+  </si>
+  <si>
+    <t>internet based facility that handles all inbound and outbound customer communications for a company</t>
+  </si>
+  <si>
+    <t>increasing adoption of cloud based solutions within companies around the world, which is creating strong demand for integrated cloud contact center software solutoins</t>
+  </si>
+  <si>
+    <t>digital transformation</t>
+  </si>
+  <si>
+    <t>advancements in AI</t>
+  </si>
+  <si>
+    <t>sales model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field sales team that sells their solution to mid size, enterpriuse, and fortune 1000 companies </t>
+  </si>
+  <si>
+    <t>telesales team that sells their solution to smaller companies</t>
+  </si>
+  <si>
+    <t>their solution advantages</t>
+  </si>
+  <si>
+    <t>rapid implementation, seamless updates and pre built integrations</t>
+  </si>
+  <si>
+    <t>highly flexible platform</t>
+  </si>
+  <si>
+    <t>scalable, secure and reliable multi-tenant architecture</t>
+  </si>
+  <si>
+    <t>solution desidnged to provide following key benefits to customers</t>
+  </si>
+  <si>
+    <t>complete omnichannel solution</t>
+  </si>
+  <si>
+    <t>improved customer experience</t>
+  </si>
+  <si>
+    <t>higher agent productivity</t>
+  </si>
+  <si>
+    <t>enhanced end-to-end visibility</t>
+  </si>
+  <si>
+    <t>greater operational efficiency</t>
+  </si>
+  <si>
+    <t>compelling value proposition</t>
+  </si>
+  <si>
+    <t>implementing AI successfully</t>
   </si>
 </sst>
 </file>
@@ -175,12 +262,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -194,8 +290,8 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -212,6 +308,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>606592</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25066</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>55145</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E6EC9C-00DE-E31F-3D5F-564227FF7067}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5303921" y="30079"/>
+          <a:ext cx="30079" cy="4978066"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -531,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A41ED28-DAF1-47BF-B889-8E9BC8B90660}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,12 +693,12 @@
     <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>1</v>
       </c>
@@ -555,7 +706,7 @@
         <v>32.479999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>2</v>
       </c>
@@ -563,7 +714,7 @@
         <v>75809562</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>3</v>
       </c>
@@ -572,7 +723,7 @@
         <v>2462294573.7599998</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>4</v>
       </c>
@@ -581,7 +732,7 @@
         <v>1005956000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>5</v>
       </c>
@@ -589,7 +740,7 @@
         <v>641691000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
         <v>6</v>
       </c>
@@ -597,46 +748,223 @@
         <f>H5-H6+H7</f>
         <v>2098029573.7599998</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f>279+264+252+247</f>
+        <v>1042</v>
+      </c>
+      <c r="J12">
+        <f>$J$8/H12</f>
+        <v>2.0134357005758159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f>279+264+252+247</f>
+        <v>1042</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13:J15" si="0">$J$8/H13</f>
+        <v>2.0134357005758159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>9</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f>279*4</f>
+        <v>1116</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>1.8799283154121864</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15">
+        <v>1142</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>1.8371278458844134</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
         <v>14</v>
       </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G19" t="s">
-        <v>15</v>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -646,13 +974,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA51CCF-1A5A-46C9-8ECB-17696EEE9713}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +989,7 @@
     <col min="2" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="4">
         <v>2019</v>
       </c>
@@ -684,10 +1012,13 @@
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="3">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3">
         <v>328006</v>
@@ -707,10 +1038,73 @@
       <c r="G2" s="3">
         <v>1041938</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="3">
+        <v>1142000</v>
+      </c>
+      <c r="K2" s="3">
+        <v>95</v>
+      </c>
+      <c r="L2" s="3">
+        <v>100</v>
+      </c>
+      <c r="M2" s="3">
+        <v>112</v>
+      </c>
+      <c r="N2" s="3">
+        <v>128</v>
+      </c>
+      <c r="O2" s="3">
+        <v>138</v>
+      </c>
+      <c r="P2" s="3">
+        <v>144</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>154</v>
+      </c>
+      <c r="R2" s="3">
+        <v>174</v>
+      </c>
+      <c r="S2" s="3">
+        <v>183</v>
+      </c>
+      <c r="T2" s="3">
+        <v>189</v>
+      </c>
+      <c r="U2" s="3">
+        <v>198</v>
+      </c>
+      <c r="V2" s="3">
+        <v>208</v>
+      </c>
+      <c r="W2" s="3">
+        <v>218</v>
+      </c>
+      <c r="X2" s="3">
+        <v>223</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>230</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>239</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>246</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>252</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>264</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3">
         <v>-134511</v>
@@ -731,265 +1125,274 @@
         <v>-477540</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4">
+        <f t="shared" ref="B4:G4" si="1">SUM(B2:B3)</f>
+        <v>193495</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="1"/>
+        <v>254624</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="1"/>
+        <v>338492</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="1"/>
+        <v>411345</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="1"/>
+        <v>477798</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="1"/>
+        <v>564398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="4">
-        <f>SUM(B2:B3)</f>
-        <v>193495</v>
-      </c>
-      <c r="C4" s="4">
-        <f>SUM(C2:C3)</f>
-        <v>254624</v>
-      </c>
-      <c r="D4" s="4">
-        <f>SUM(D2:D3)</f>
-        <v>338492</v>
-      </c>
-      <c r="E4" s="4">
-        <f>SUM(E2:E3)</f>
-        <v>411345</v>
-      </c>
-      <c r="F4" s="4">
-        <f>SUM(F2:F3)</f>
-        <v>477798</v>
-      </c>
-      <c r="G4" s="4">
-        <f>SUM(G2:G3)</f>
-        <v>564398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="3">
+        <v>-45190</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-68747</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-106897</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-141794</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-156582</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-166197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="5">
-        <v>-45190</v>
-      </c>
-      <c r="C5" s="5">
-        <v>-68747</v>
-      </c>
-      <c r="D5" s="5">
-        <v>-106897</v>
-      </c>
-      <c r="E5" s="5">
-        <v>-141794</v>
-      </c>
-      <c r="F5" s="5">
-        <v>-156582</v>
-      </c>
-      <c r="G5" s="5">
-        <v>-166197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3">
+        <v>-95592</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-132413</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-193929</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-261990</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-296713</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-311954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="5">
-        <v>-95592</v>
-      </c>
-      <c r="C6" s="5">
-        <v>-132413</v>
-      </c>
-      <c r="D6" s="5">
-        <v>-193929</v>
-      </c>
-      <c r="E6" s="5">
-        <v>-261990</v>
-      </c>
-      <c r="F6" s="5">
-        <v>-296713</v>
-      </c>
-      <c r="G6" s="5">
-        <v>-311954</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="3">
+        <v>-49446</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-65769</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-93916</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-95143</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-123079</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-137550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="5">
-        <v>-49446</v>
-      </c>
-      <c r="C7" s="5">
-        <v>-65769</v>
-      </c>
-      <c r="D7" s="5">
-        <v>-93916</v>
-      </c>
-      <c r="E7" s="5">
-        <v>-95143</v>
-      </c>
-      <c r="F7" s="5">
-        <v>-123079</v>
-      </c>
-      <c r="G7" s="5">
-        <v>-137550</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="4">
+        <f t="shared" ref="B8:G8" si="2">SUM(B5:B7)</f>
+        <v>-190228</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="2"/>
+        <v>-266929</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="2"/>
+        <v>-394742</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="2"/>
+        <v>-498927</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="2"/>
+        <v>-576374</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="2"/>
+        <v>-615701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4">
-        <f>SUM(B5:B7)</f>
-        <v>-190228</v>
-      </c>
-      <c r="C8" s="4">
-        <f>SUM(C5:C7)</f>
-        <v>-266929</v>
-      </c>
-      <c r="D8" s="4">
-        <f>SUM(D5:D7)</f>
-        <v>-394742</v>
-      </c>
-      <c r="E8" s="4">
-        <f>SUM(E5:E7)</f>
-        <v>-498927</v>
-      </c>
-      <c r="F8" s="4">
-        <f>SUM(F5:F7)</f>
-        <v>-576374</v>
-      </c>
-      <c r="G8" s="4">
-        <f>SUM(G5:G7)</f>
-        <v>-615701</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="4">
+        <f t="shared" ref="B9:G9" si="3">B4+B8</f>
+        <v>3267</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="3"/>
+        <v>-12305</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="3"/>
+        <v>-56250</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="3"/>
+        <v>-87582</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="3"/>
+        <v>-98576</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="3"/>
+        <v>-51303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="4">
-        <f>B4+B8</f>
-        <v>3267</v>
-      </c>
-      <c r="C9" s="4">
-        <f>C4+C8</f>
-        <v>-12305</v>
-      </c>
-      <c r="D9" s="4">
-        <f>D4+D8</f>
-        <v>-56250</v>
-      </c>
-      <c r="E9" s="4">
-        <f>E4+E8</f>
-        <v>-87582</v>
-      </c>
-      <c r="F9" s="4">
-        <f>F4+F8</f>
-        <v>-98576</v>
-      </c>
-      <c r="G9" s="4">
-        <f>G4+G8</f>
-        <v>-51303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>-13794</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>-28348</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>-8027</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>-7493</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>-7646</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <f>-14812+6615</f>
         <v>-8197</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="5">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3">
         <v>6079</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <f>-6964+3034</f>
         <v>-3930</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>-8</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>4813</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>26799</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>46745</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-104</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2453</v>
+      </c>
+      <c r="D12" s="3">
+        <v>11285</v>
+      </c>
+      <c r="E12" s="3">
+        <v>-4388</v>
+      </c>
+      <c r="F12" s="3">
+        <v>-2341</v>
+      </c>
+      <c r="G12" s="3">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="5">
-        <v>-104</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2453</v>
-      </c>
-      <c r="D12" s="5">
-        <v>11285</v>
-      </c>
-      <c r="E12" s="5">
-        <v>-4388</v>
-      </c>
-      <c r="F12" s="5">
-        <v>-2341</v>
-      </c>
-      <c r="G12" s="5">
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="B13" s="4">
+        <f t="shared" ref="B13:G13" si="4">SUM(B9:B12)</f>
+        <v>-4552</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="4"/>
+        <v>-42130</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="4"/>
+        <v>-53000</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="4"/>
+        <v>-94650</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="4"/>
+        <v>-81764</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="4"/>
+        <v>-12795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="4">
-        <f>SUM(B9:B12)</f>
-        <v>-4552</v>
-      </c>
-      <c r="C13" s="4">
-        <f>SUM(C9:C12)</f>
-        <v>-42130</v>
-      </c>
-      <c r="D13" s="4">
-        <f>SUM(D9:D12)</f>
-        <v>-53000</v>
-      </c>
-      <c r="E13" s="4">
-        <f>SUM(E9:E12)</f>
-        <v>-94650</v>
-      </c>
-      <c r="F13" s="4">
-        <f>SUM(F9:F12)</f>
-        <v>-81764</v>
-      </c>
-      <c r="G13" s="4">
-        <f>SUM(G9:G12)</f>
-        <v>-12795</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>28</v>
+      <c r="B15" s="3">
+        <v>51221</v>
+      </c>
+      <c r="C15" s="3">
+        <v>67302</v>
+      </c>
+      <c r="D15" s="3">
+        <v>28485</v>
       </c>
       <c r="E15" s="3">
         <v>88865</v>
@@ -1001,9 +1404,9 @@
         <v>143168</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="3">
         <v>-52272</v>
@@ -1015,78 +1418,112 @@
         <v>-42388</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="3">
         <f>SUM(E15:E16)</f>
         <v>36593</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" ref="F17:G17" si="1">SUM(F15:F16)</f>
+        <f t="shared" ref="F17:G17" si="5">SUM(F15:F16)</f>
         <v>97604</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100780</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="6">
+        <v>29</v>
+      </c>
+      <c r="C19" s="5">
         <f>C2/B2-1</f>
         <v>0.32591476985177104</v>
       </c>
-      <c r="D19" s="6">
-        <f t="shared" ref="D19:G19" si="2">D2/C2-1</f>
+      <c r="D19" s="5">
+        <f t="shared" ref="D19:H19" si="6">D2/C2-1</f>
         <v>0.40165506267992312</v>
       </c>
-      <c r="E19" s="6">
-        <f t="shared" si="2"/>
+      <c r="E19" s="5">
+        <f t="shared" si="6"/>
         <v>0.27765337742847263</v>
       </c>
-      <c r="F19" s="6">
-        <f t="shared" si="2"/>
+      <c r="F19" s="5">
+        <f t="shared" si="6"/>
         <v>0.16902186054752799</v>
       </c>
-      <c r="G19" s="6">
-        <f t="shared" si="2"/>
+      <c r="G19" s="5">
+        <f t="shared" si="6"/>
         <v>0.14437312737784569</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="5">
+        <f t="shared" si="6"/>
+        <v>9.6034504932155373E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="6">
+        <v>30</v>
+      </c>
+      <c r="B20" s="5">
         <f>B4/B2</f>
         <v>0.58991298939653547</v>
       </c>
-      <c r="C20" s="6">
-        <f t="shared" ref="C20:G20" si="3">C4/C2</f>
+      <c r="C20" s="5">
+        <f t="shared" ref="C20:G20" si="7">C4/C2</f>
         <v>0.58546635150422621</v>
       </c>
-      <c r="D20" s="6">
-        <f t="shared" si="3"/>
+      <c r="D20" s="5">
+        <f t="shared" si="7"/>
         <v>0.55527722686194514</v>
       </c>
-      <c r="E20" s="6">
-        <f t="shared" si="3"/>
+      <c r="E20" s="5">
+        <f t="shared" si="7"/>
         <v>0.52814677099195473</v>
       </c>
-      <c r="F20" s="6">
-        <f t="shared" si="3"/>
+      <c r="F20" s="5">
+        <f t="shared" si="7"/>
         <v>0.52477133141787702</v>
       </c>
-      <c r="G20" s="6">
-        <f t="shared" si="3"/>
+      <c r="G20" s="5">
+        <f t="shared" si="7"/>
         <v>0.54168098293756439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="5">
+        <f>B15/B2</f>
+        <v>0.1561587288037414</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" ref="C21:G21" si="8">C15/C2</f>
+        <v>0.15474997010862068</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="8"/>
+        <v>4.6728052087383183E-2</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="8"/>
+        <v>0.11409829414287291</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="8"/>
+        <v>0.14150433613622584</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="8"/>
+        <v>0.13740548861832469</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>